--- a/data/hotels_by_city/Houston/Houston_shard_66.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_66.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="197">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d107952-Reviews-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Candlewood-Suites-Houston-CityCentre-I-10-West.h84468.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,465 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r529829642-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107952</t>
+  </si>
+  <si>
+    <t>529829642</t>
+  </si>
+  <si>
+    <t>10/04/2017</t>
+  </si>
+  <si>
+    <t>Great Long Term Stay</t>
+  </si>
+  <si>
+    <t>This Candlewood has been our go-to hotel for our several week-long stays in Houston in 2017. The staff is the best!  They know how to attend to their guests and they make you feel like you are coming home.  The staff is welcoming, engaging and helpful.  We prefer the two-room suites for longer stays. We appreciate the fact that all the rooms have full kitchens and that this hotel offers daily newspapers and free laundry facilities. With Randall’s grocery, Walgreens, the Memorial City Mall, the Post Office and many excellent restaurants in the neighborhood, this hotel is also in a great location when traveling to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Jennifer D, Director of Sales at Candlewood Suites At CityCentre-Energy Corridor, responded to this reviewResponded October 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2017</t>
+  </si>
+  <si>
+    <t>This Candlewood has been our go-to hotel for our several week-long stays in Houston in 2017. The staff is the best!  They know how to attend to their guests and they make you feel like you are coming home.  The staff is welcoming, engaging and helpful.  We prefer the two-room suites for longer stays. We appreciate the fact that all the rooms have full kitchens and that this hotel offers daily newspapers and free laundry facilities. With Randall’s grocery, Walgreens, the Memorial City Mall, the Post Office and many excellent restaurants in the neighborhood, this hotel is also in a great location when traveling to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r509763204-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>509763204</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Rooms are Nice</t>
+  </si>
+  <si>
+    <t>Booked two rooms for a celebrate a friends birthday.  The rooms are perfect for this sort of get together.  We have a bedroom, living room and a fully equipped kitchenette.  Plenty of room for eating and chatting.  The front desk guys were extremely helpful and friendly.  The rooms were clean and well kept.  My one complaint was the hallways didn't seem to be getting much air, but this is just a minor issue.  Would definitely stay here again.  Location is also good if you need to be in the Memorial/Energy Corridor area.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Jennifer D, Director of Sales at Candlewood Suites At CityCentre-Energy Corridor, responded to this reviewResponded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Booked two rooms for a celebrate a friends birthday.  The rooms are perfect for this sort of get together.  We have a bedroom, living room and a fully equipped kitchenette.  Plenty of room for eating and chatting.  The front desk guys were extremely helpful and friendly.  The rooms were clean and well kept.  My one complaint was the hallways didn't seem to be getting much air, but this is just a minor issue.  Would definitely stay here again.  Location is also good if you need to be in the Memorial/Energy Corridor area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r505574890-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>505574890</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>Cockroaches</t>
+  </si>
+  <si>
+    <t>Worst experience ever. There are cockroaches all over the place, I saw one in the hall and another one inside my room. Complete nightmare. I struggled all the time with the A/C, I was either too hot or too cold. The TV remote control stopped working one night and there are no services in terms of room services or breakfast. So the night fare is cheap but it is no excuse for delivering such a bad customer experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Worst experience ever. There are cockroaches all over the place, I saw one in the hall and another one inside my room. Complete nightmare. I struggled all the time with the A/C, I was either too hot or too cold. The TV remote control stopped working one night and there are no services in terms of room services or breakfast. So the night fare is cheap but it is no excuse for delivering such a bad customer experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r458403912-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458403912</t>
+  </si>
+  <si>
+    <t>02/09/2017</t>
+  </si>
+  <si>
+    <t>Super Bowl Weekend</t>
+  </si>
+  <si>
+    <t>Perfect stay for the 2 of us for Super Bowl Weekend.  Close to dining, &amp; easy access to Uber.  Leon was friendly &amp; a great host to greet us all weekend when we came home to Candlewood Suites.  Cozy &amp; clean, we would recommend this home away from home.  Great job!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Jennifer D, Director of Sales at Candlewood Suites At CityCentre-Energy Corridor, responded to this reviewResponded February 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2017</t>
+  </si>
+  <si>
+    <t>Perfect stay for the 2 of us for Super Bowl Weekend.  Close to dining, &amp; easy access to Uber.  Leon was friendly &amp; a great host to greet us all weekend when we came home to Candlewood Suites.  Cozy &amp; clean, we would recommend this home away from home.  Great job!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r449351653-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>449351653</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>Great value, convenient location</t>
+  </si>
+  <si>
+    <t>This hotel is in a very convenient location, close to the residential area where my family lives. Service was good, in fact the staff were exceptionally pleasant, check in painless and the rooms were well equipped. The room price represents very good value. I will stay here again.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r428918447-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>428918447</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Better than expected</t>
+  </si>
+  <si>
+    <t>First checking in I was skeptical walking in. The lobby and hallways were fairly warm and outdated looking. However, the rooms were pretty nice and modern. There is no breakfast unless you want to pay for it and the lobby leaves a bit to be desired. I would absolutely stay here again though.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r344294106-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>344294106</t>
+  </si>
+  <si>
+    <t>02/01/2016</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Another great stay at a Candlewood Suites. The hotel is in great condition and well kept. Tammi, Leone, &amp; Salvador were friendly and attentive. Easy access to I-10 and tons of eating options around to choose from.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r341885787-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>341885787</t>
+  </si>
+  <si>
+    <t>01/22/2016</t>
+  </si>
+  <si>
+    <t>Bargain property, but not really a bargain</t>
+  </si>
+  <si>
+    <t>The rooms have some good points: you get a decent little kitchenette with plenty of table/desk space. There's a nice comfy chair to sit in, in addition to the office-y chair. There are sufficient washers and dryers if you are staying awhile. It's clean.Here's what's not awesome: I had to walk a gauntlet of smokers to get to the door. They literally line the walkway with benches that people blow smoke at you from. Not fun. There is no lobby to speak of, so it feels a little like a place people rent by the hour. There's no real common area except the laundry space, so if you're staying any length of time, you're in your room. It's a little edgy feeling, even though it's in close proximity to super nice restaurants and shopping. Somehow, it feels like you're in a scary area. No one was at the desk when I left, so I can't really rate the staff, as I only saw anyone when I checked in.You don't really get what you pay for. At this price point, you should have breakfast included. It's hard because there aren't really places close by to grab a reasonable breakfast (like a Denny's). You can buy breakfast items in their little store, but of course, they're overpriced. If you come here, bring your own food. And frankly, I don' t think you should have to do that at this price.MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms have some good points: you get a decent little kitchenette with plenty of table/desk space. There's a nice comfy chair to sit in, in addition to the office-y chair. There are sufficient washers and dryers if you are staying awhile. It's clean.Here's what's not awesome: I had to walk a gauntlet of smokers to get to the door. They literally line the walkway with benches that people blow smoke at you from. Not fun. There is no lobby to speak of, so it feels a little like a place people rent by the hour. There's no real common area except the laundry space, so if you're staying any length of time, you're in your room. It's a little edgy feeling, even though it's in close proximity to super nice restaurants and shopping. Somehow, it feels like you're in a scary area. No one was at the desk when I left, so I can't really rate the staff, as I only saw anyone when I checked in.You don't really get what you pay for. At this price point, you should have breakfast included. It's hard because there aren't really places close by to grab a reasonable breakfast (like a Denny's). You can buy breakfast items in their little store, but of course, they're overpriced. If you come here, bring your own food. And frankly, I don' t think you should have to do that at this price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r341807102-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>341807102</t>
+  </si>
+  <si>
+    <t>01/21/2016</t>
+  </si>
+  <si>
+    <t>Lovely friendly staff.</t>
+  </si>
+  <si>
+    <t>There is nothing fancy about this place but it is extremely clean and the rooms have everything you need. There is even free food available sometimes. The staff are especially friendly. Have stayed here twice in the last couple of months and it's been perfect for our needs. You can also wash and dry clothes for free which was great when we were in the process of moving house. Sometimes you don't need luxury you just need  all the practical things!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r295859018-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>295859018</t>
+  </si>
+  <si>
+    <t>08/04/2015</t>
+  </si>
+  <si>
+    <t>Quiet and Convenient</t>
+  </si>
+  <si>
+    <t>Friendly staff, Quiet rooms, nice area.Very close to some reasonable restaurants, including Taste of Texas steakhouse. Near to Town &amp; Country City Centre with plenty of outdoor shopping, restaurants and coffee shops.Convenient for routes to San Antonio, Dallas and Downtown Houston.Staff are generally pleasant, Leon very friendly. Rooms clean and tidy. Little to no noise heard. Gym and Laundry facilities good as were the supplies in the Candlewood Cupboard.I will be back there soon, all the way from Australia!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Jennifer D, Director of Sales at Candlewood Suites At CityCentre-Energy Corridor, responded to this reviewResponded October 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2015</t>
+  </si>
+  <si>
+    <t>Friendly staff, Quiet rooms, nice area.Very close to some reasonable restaurants, including Taste of Texas steakhouse. Near to Town &amp; Country City Centre with plenty of outdoor shopping, restaurants and coffee shops.Convenient for routes to San Antonio, Dallas and Downtown Houston.Staff are generally pleasant, Leon very friendly. Rooms clean and tidy. Little to no noise heard. Gym and Laundry facilities good as were the supplies in the Candlewood Cupboard.I will be back there soon, all the way from Australia!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r282722477-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>282722477</t>
+  </si>
+  <si>
+    <t>06/24/2015</t>
+  </si>
+  <si>
+    <t>Good hotel, nice staff</t>
+  </si>
+  <si>
+    <t>Overall, the suite we were in here was worth the money.   Upon first impression it was very good, it was clean, stocked with drinkware, tableware, silverware and towels.  It has everything you might need. It also has a small kitchenette w6kth two burner stove, apartment sized fridge, coffee pot and an over the range microwave.  It looks to have been recently remodled in a mix of modern And simplistic decor.  We would stay here again.  The only thing that did not fit was a slight musty smell probably due to all the water that has been in Houston lately.  I would recommend this hotel.  MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites At CityCentre-Energy Corridor, responded to this reviewResponded July 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2015</t>
+  </si>
+  <si>
+    <t>Overall, the suite we were in here was worth the money.   Upon first impression it was very good, it was clean, stocked with drinkware, tableware, silverware and towels.  It has everything you might need. It also has a small kitchenette w6kth two burner stove, apartment sized fridge, coffee pot and an over the range microwave.  It looks to have been recently remodled in a mix of modern And simplistic decor.  We would stay here again.  The only thing that did not fit was a slight musty smell probably due to all the water that has been in Houston lately.  I would recommend this hotel.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r275835716-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275835716</t>
+  </si>
+  <si>
+    <t>05/30/2015</t>
+  </si>
+  <si>
+    <t>The staff who was splendid hospitality</t>
+  </si>
+  <si>
+    <t>ExcellentI looked forward to comfortable life, a cookie of Tuesday and a dinner-service of Wednesday.The staff who always corresponds to friend Lee is splendid.I think that it is friend Lee of the top-class in the world.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r197330703-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197330703</t>
+  </si>
+  <si>
+    <t>03/13/2014</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>We were spending time in Houston attending a wine tasting event so we decided to stay at a hotel - we do not drink and drive. We found this place on a website and liked the location and the price. The hotel was being renovated - painted, new carpet etc so we spent time dodging the equipment that was being used. The hotel staff was very accommodating in our request for taxi service and the room was decent.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites At CityCentre-Energy Corridor, responded to this reviewResponded April 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2014</t>
+  </si>
+  <si>
+    <t>We were spending time in Houston attending a wine tasting event so we decided to stay at a hotel - we do not drink and drive. We found this place on a website and liked the location and the price. The hotel was being renovated - painted, new carpet etc so we spent time dodging the equipment that was being used. The hotel staff was very accommodating in our request for taxi service and the room was decent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r190472579-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>190472579</t>
+  </si>
+  <si>
+    <t>01/11/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great stay! </t>
+  </si>
+  <si>
+    <t>I only stayed for one night, but I must admit, I'm highly impressed. I stayed in the one bedroom suite and fell in love. I felt completely comfortable in my room. The space was large, clean, and had everything I needed. For the price and location, I do not think you can top that.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Jennifer D, Director of Sales at Candlewood Suites At CityCentre-Energy Corridor, responded to this reviewResponded January 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2014</t>
+  </si>
+  <si>
+    <t>I only stayed for one night, but I must admit, I'm highly impressed. I stayed in the one bedroom suite and fell in love. I felt completely comfortable in my room. The space was large, clean, and had everything I needed. For the price and location, I do not think you can top that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r186780185-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>186780185</t>
+  </si>
+  <si>
+    <t>12/04/2013</t>
+  </si>
+  <si>
+    <t>Great place for getting in and out !</t>
+  </si>
+  <si>
+    <t>Hotel is very clean and the staff are very friendly , mine was a 5 day stay. I will recommend this Hotel to anyone I know of coming this way. Great restaurant's right across the way in walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Jennifer D, Director of Sales at Candlewood Suites At CityCentre-Energy Corridor, responded to this reviewResponded December 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2013</t>
+  </si>
+  <si>
+    <t>Hotel is very clean and the staff are very friendly , mine was a 5 day stay. I will recommend this Hotel to anyone I know of coming this way. Great restaurant's right across the way in walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r153115606-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153115606</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>Upgraded since I last stayed here</t>
+  </si>
+  <si>
+    <t>For the road warrior, this property is pretty good. I am impressed with the interior room upgrades. Now they only need to upgrade te exterior as it does not complement the nice room interior. I give it4 stars because its more than adequate for the regular, extended stay road warrior, and no noisy neighbors during my stay (and this was true of past stays). I hope the property considers fixing up the outside appearance.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r147804995-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147804995</t>
+  </si>
+  <si>
+    <t>12/20/2012</t>
+  </si>
+  <si>
+    <t>Inexpensive</t>
+  </si>
+  <si>
+    <t>We stayed at Candlewood to be close to family in the Memorial area of Houston.  It was relatively close and it was inexpensive, but that's about all you can say about it.  The room was quite large and included a kitchen, but it was really worn out.  Everything about the room, the furniture, the fixtures, the carpets, even the bedding and the decorations were shopworn and badly need replacing.  It was reasonably clean, I think, but it didn't feel good because it was so "used" looking.  For an inexpensive longer term stay, for someone wanting to cook and eat in the room, it's probably okay.  It was quiet, well located, and the staff were friendly and helpful, but it's really hard to overcome the used-up appearance of the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>We stayed at Candlewood to be close to family in the Memorial area of Houston.  It was relatively close and it was inexpensive, but that's about all you can say about it.  The room was quite large and included a kitchen, but it was really worn out.  Everything about the room, the furniture, the fixtures, the carpets, even the bedding and the decorations were shopworn and badly need replacing.  It was reasonably clean, I think, but it didn't feel good because it was so "used" looking.  For an inexpensive longer term stay, for someone wanting to cook and eat in the room, it's probably okay.  It was quiet, well located, and the staff were friendly and helpful, but it's really hard to overcome the used-up appearance of the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r142948963-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142948963</t>
+  </si>
+  <si>
+    <t>10/16/2012</t>
+  </si>
+  <si>
+    <t>Reasonably priced, good location</t>
+  </si>
+  <si>
+    <t>Hotel rooms are spacious &amp; equipped with kitchenette in addition to in house vending and laundry machines. This makes it suitable for longer stay clients wishing to do their own cooking. The hotel is located within 5 minutes to entertainment a food outlets, and some 15 minutes walking distance from major shopping malls. Reasonable priced with free WiFi however, with once a week cleaning, which I found a but disturbing. Good value for money.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r92570322-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>92570322</t>
+  </si>
+  <si>
+    <t>01/11/2011</t>
+  </si>
+  <si>
+    <t>pleasant stay</t>
+  </si>
+  <si>
+    <t>This property is strategically located on the corner of the Sam Houston Parkway (8) and I-10 . Close to Hermann Memorial Hospital and Hotel Sorello. Town and country Blvd is the home of an excellent shopping area and around Candlewood you will find a plethora of good restaurants.The property itself is dated and worn but clean and good value for money. A short walk to a park and a training facility with a track for jogging. The unit we stayed in had a kitchenette, free WiFi, a desk and a separate bedroom.Comfortable and quiet with a pleasant staff.</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r78705940-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>78705940</t>
+  </si>
+  <si>
+    <t>09/07/2010</t>
+  </si>
+  <si>
+    <t>Great hotel and location!</t>
+  </si>
+  <si>
+    <t>This was one of the best hotels I have stayed in. The beds and pillow were great, I slept almost as good as I do at home. The room is a good size and everything was clean and quiet. It is off the main roads so there is not a lot of road noise. It is near a lot of shopping and food choices. The only issue is that there is not always someone at the front desk and you are in charge of your own breakfast. The staff were always friendly and always checking to make sure things went smoothly. The big plus is that there is a DVD/VCR combo and you can rent movies for free from the front desk. For the price and location this is a hotel you should definitely look into!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>This was one of the best hotels I have stayed in. The beds and pillow were great, I slept almost as good as I do at home. The room is a good size and everything was clean and quiet. It is off the main roads so there is not a lot of road noise. It is near a lot of shopping and food choices. The only issue is that there is not always someone at the front desk and you are in charge of your own breakfast. The staff were always friendly and always checking to make sure things went smoothly. The big plus is that there is a DVD/VCR combo and you can rent movies for free from the front desk. For the price and location this is a hotel you should definitely look into!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1000,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1032,1363 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36353</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36353</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36353</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36353</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36353</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36353</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36353</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36353</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36353</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36353</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>119</v>
+      </c>
+      <c r="X11" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36353</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>127</v>
+      </c>
+      <c r="O12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>128</v>
+      </c>
+      <c r="X12" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36353</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13" t="s">
+        <v>135</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13" t="s">
+        <v>137</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36353</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>143</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>144</v>
+      </c>
+      <c r="X14" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36353</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>148</v>
+      </c>
+      <c r="J15" t="s">
+        <v>149</v>
+      </c>
+      <c r="K15" t="s">
+        <v>150</v>
+      </c>
+      <c r="L15" t="s">
+        <v>151</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>152</v>
+      </c>
+      <c r="O15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>153</v>
+      </c>
+      <c r="X15" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36353</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>157</v>
+      </c>
+      <c r="J16" t="s">
+        <v>158</v>
+      </c>
+      <c r="K16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>161</v>
+      </c>
+      <c r="O16" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>162</v>
+      </c>
+      <c r="X16" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36353</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" t="s">
+        <v>167</v>
+      </c>
+      <c r="K17" t="s">
+        <v>168</v>
+      </c>
+      <c r="L17" t="s">
+        <v>169</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>170</v>
+      </c>
+      <c r="O17" t="s">
+        <v>137</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36353</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>172</v>
+      </c>
+      <c r="J18" t="s">
+        <v>173</v>
+      </c>
+      <c r="K18" t="s">
+        <v>174</v>
+      </c>
+      <c r="L18" t="s">
+        <v>175</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>176</v>
+      </c>
+      <c r="O18" t="s">
+        <v>137</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36353</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19" t="s">
+        <v>180</v>
+      </c>
+      <c r="K19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L19" t="s">
+        <v>182</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>183</v>
+      </c>
+      <c r="O19" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36353</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>185</v>
+      </c>
+      <c r="J20" t="s">
+        <v>186</v>
+      </c>
+      <c r="K20" t="s">
+        <v>187</v>
+      </c>
+      <c r="L20" t="s">
+        <v>188</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>189</v>
+      </c>
+      <c r="O20" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36353</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>190</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>191</v>
+      </c>
+      <c r="J21" t="s">
+        <v>192</v>
+      </c>
+      <c r="K21" t="s">
+        <v>193</v>
+      </c>
+      <c r="L21" t="s">
+        <v>194</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>195</v>
+      </c>
+      <c r="O21" t="s">
+        <v>72</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_66.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_66.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="303">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,75 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r541477070-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107952</t>
+  </si>
+  <si>
+    <t>541477070</t>
+  </si>
+  <si>
+    <t>11/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friendly eye level service </t>
+  </si>
+  <si>
+    <t>Eric was the first one I met when I entered the hotel. He was at the front desk and I immediately felt the difference from other hotels I visited. He was full of energy, ready to service and smily. This made the difference for me. The hotel is well maintained and it feels there is some one who cares. Some of the suites are occupied by Harvey displaced people and it just adds more to the unique atmosphere. People know each other.  I prefer to stay in this hotel with its Archie Bunker armchair  than any other “fancy shmency” hotel where staff are robotic and cold. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Jennifer D, Director of Sales at Candlewood Suites At CityCentre-Energy Corridor, responded to this reviewResponded December 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2017</t>
+  </si>
+  <si>
+    <t>Eric was the first one I met when I entered the hotel. He was at the front desk and I immediately felt the difference from other hotels I visited. He was full of energy, ready to service and smily. This made the difference for me. The hotel is well maintained and it feels there is some one who cares. Some of the suites are occupied by Harvey displaced people and it just adds more to the unique atmosphere. People know each other.  I prefer to stay in this hotel with its Archie Bunker armchair  than any other “fancy shmency” hotel where staff are robotic and cold. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r534049815-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>534049815</t>
+  </si>
+  <si>
+    <t>10/18/2017</t>
+  </si>
+  <si>
+    <t>Amazing staff</t>
+  </si>
+  <si>
+    <t>I stayed here for almost two months and the staff was nothing short of phenomenal.  They took care of every detail - you could say they spoiled us.  My travel companion was asked how his room was and he responded "I could use a fan - I like to fall asleep with one blowing on me."  Upon arrival the next day after work there was a brand new oscillating fan in a box which Leon insisted on carrying to his room.  This was just the start, every Wednesday they had dinner, drinks and desserts prepared for us.  To call them accommodating during Hurricane Harvey is an understatement - from simply entertaining anyone who was bored to offering a lift to the supermarket.  Thank you again to Leon, Tammy, Tanya, Erick, Jen and everyone on staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Jennifer D, Director of Sales at Candlewood Suites At CityCentre-Energy Corridor, responded to this reviewResponded October 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here for almost two months and the staff was nothing short of phenomenal.  They took care of every detail - you could say they spoiled us.  My travel companion was asked how his room was and he responded "I could use a fan - I like to fall asleep with one blowing on me."  Upon arrival the next day after work there was a brand new oscillating fan in a box which Leon insisted on carrying to his room.  This was just the start, every Wednesday they had dinner, drinks and desserts prepared for us.  To call them accommodating during Hurricane Harvey is an understatement - from simply entertaining anyone who was bored to offering a lift to the supermarket.  Thank you again to Leon, Tammy, Tanya, Erick, Jen and everyone on staff.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r529829642-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>107952</t>
-  </si>
-  <si>
     <t>529829642</t>
   </si>
   <si>
@@ -174,18 +231,9 @@
     <t>This Candlewood has been our go-to hotel for our several week-long stays in Houston in 2017. The staff is the best!  They know how to attend to their guests and they make you feel like you are coming home.  The staff is welcoming, engaging and helpful.  We prefer the two-room suites for longer stays. We appreciate the fact that all the rooms have full kitchens and that this hotel offers daily newspapers and free laundry facilities. With Randall’s grocery, Walgreens, the Memorial City Mall, the Post Office and many excellent restaurants in the neighborhood, this hotel is also in a great location when traveling to Houston.MoreShow less</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>Jennifer D, Director of Sales at Candlewood Suites At CityCentre-Energy Corridor, responded to this reviewResponded October 19, 2017</t>
-  </si>
-  <si>
-    <t>Responded October 19, 2017</t>
-  </si>
-  <si>
     <t>This Candlewood has been our go-to hotel for our several week-long stays in Houston in 2017. The staff is the best!  They know how to attend to their guests and they make you feel like you are coming home.  The staff is welcoming, engaging and helpful.  We prefer the two-room suites for longer stays. We appreciate the fact that all the rooms have full kitchens and that this hotel offers daily newspapers and free laundry facilities. With Randall’s grocery, Walgreens, the Memorial City Mall, the Post Office and many excellent restaurants in the neighborhood, this hotel is also in a great location when traveling to Houston.More</t>
   </si>
   <si>
@@ -234,12 +282,57 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Worst experience ever. There are cockroaches all over the place, I saw one in the hall and another one inside my room. Complete nightmare. I struggled all the time with the A/C, I was either too hot or too cold. The TV remote control stopped working one night and there are no services in terms of room services or breakfast. So the night fare is cheap but it is no excuse for delivering such a bad customer experience.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r487381535-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>487381535</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>Great place for a longer stay!</t>
+  </si>
+  <si>
+    <t>First of all....Houston is HUGE! The drive from the airport was probably around 40 minutes so expect to pay minimum USD50 (incl. tips) for 2 people with 2 bags plus hand luggage. Very friendly welcome at reception and the room was large-including a micro, fridge/freezer, sink, cutlery etc). A novelty to a European. Very clean and nice. There is a self-service mini shop close to the cafeteria where you can buy pot noodles, snacks, nuts etc and there are also washing machines. Complimentary coffee is great. Do not miss "City Centre" (which has nothing to do with Houston city centre). We walked there late at night (10 minute walk) and the place was buzzing with great bars and restaurants. Good shopping during the day. After all-a great place for the money we spent and we will definitely come back. Don't miss out on the barbecues that you can use at the side of the hotel and there is a great Texan steak house only a few hundred meters away. Especially big thanks to Leon who made us feel very welcome.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>First of all....Houston is HUGE! The drive from the airport was probably around 40 minutes so expect to pay minimum USD50 (incl. tips) for 2 people with 2 bags plus hand luggage. Very friendly welcome at reception and the room was large-including a micro, fridge/freezer, sink, cutlery etc). A novelty to a European. Very clean and nice. There is a self-service mini shop close to the cafeteria where you can buy pot noodles, snacks, nuts etc and there are also washing machines. Complimentary coffee is great. Do not miss "City Centre" (which has nothing to do with Houston city centre). We walked there late at night (10 minute walk) and the place was buzzing with great bars and restaurants. Good shopping during the day. After all-a great place for the money we spent and we will definitely come back. Don't miss out on the barbecues that you can use at the side of the hotel and there is a great Texan steak house only a few hundred meters away. Especially big thanks to Leon who made us feel very welcome.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r470287854-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>470287854</t>
+  </si>
+  <si>
+    <t>03/26/2017</t>
+  </si>
+  <si>
+    <t>Good location. Great staff. A bit tired</t>
+  </si>
+  <si>
+    <t>I find Candlewood Suites very comfortable and our room was. The staff was exceptionally friendly and helpful. And it has a good location. The only downside was our room had suffered some abuse that should be properly repaired - all cosmetic but not confidence building, such as a jury rigged A/C vent repair.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites At CityCentre-Energy Corridor, responded to this reviewResponded April 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2017</t>
+  </si>
+  <si>
+    <t>I find Candlewood Suites very comfortable and our room was. The staff was exceptionally friendly and helpful. And it has a good location. The only downside was our room had suffered some abuse that should be properly repaired - all cosmetic but not confidence building, such as a jury rigged A/C vent repair.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r458403912-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -306,6 +399,51 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r363381704-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>363381704</t>
+  </si>
+  <si>
+    <t>04/11/2016</t>
+  </si>
+  <si>
+    <t>Excellent, Comfortable, Clean stay with welcoming staff!!</t>
+  </si>
+  <si>
+    <t>Hotel suites are nicely appointed and clean.  Comfortable beds, sitting area and kitchen.  Staff goes above and beyond to make you feel welcome!!  Close to restaurants and City Centre (walking distance)  Highly recommend!!</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r346343189-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>346343189</t>
+  </si>
+  <si>
+    <t>02/09/2016</t>
+  </si>
+  <si>
+    <t>Decent suites, good location</t>
+  </si>
+  <si>
+    <t>Decent suites in a good location. Prices are reasonable for what you get. It's hard to find hotels in this area - especially at a reasonable price. This is a good choice. A good number of eating choices are within walking distance, which is nice.At the moment (February 2016) there is a lot of construction going on in the area that may make access difficult.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites At CityCentre-Energy Corridor, responded to this reviewResponded February 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2016</t>
+  </si>
+  <si>
+    <t>Decent suites in a good location. Prices are reasonable for what you get. It's hard to find hotels in this area - especially at a reasonable price. This is a good choice. A good number of eating choices are within walking distance, which is nice.At the moment (February 2016) there is a lot of construction going on in the area that may make access difficult.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r344294106-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -357,6 +495,63 @@
     <t>There is nothing fancy about this place but it is extremely clean and the rooms have everything you need. There is even free food available sometimes. The staff are especially friendly. Have stayed here twice in the last couple of months and it's been perfect for our needs. You can also wash and dry clothes for free which was great when we were in the process of moving house. Sometimes you don't need luxury you just need  all the practical things!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r339960972-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>339960972</t>
+  </si>
+  <si>
+    <t>01/14/2016</t>
+  </si>
+  <si>
+    <t>Didn't feel safe &amp; several bad experiences</t>
+  </si>
+  <si>
+    <t>Bad experience staying at Candlewood Suites Houston Town &amp; Country. I’m a business professional, woman in my upper 20s. The hotel as advertised on the website looked pretty nice, and the rate cheaper than other hotels nearby.
+I took a shuttle from IAH and, upon being dropped off about 9 pm, I noticed a couple of odd clientele out front…one guy in his PJ pants, smoking, and also smelled heavily of weed. I then walked into the lobby, wasn’t greeted but rather ignored for a couple minutes because attendant was helping someone else, until he finally looked up and said hello. The lobby is extremely small, maybe 6 foot by 10 foot.  Given that I’m an IHG rewards member, the attendant did kindly give me the “largest room they have”. 
+Walking to my room, I passed another group of shady-looking people and actually started to feel somewhat concerned about the safety of the hotel. I was very pleased, however, when getting to my room. Much larger than expected and seemed to be renovated; like an entirely different hotel from the shoddy, small lobby area.
+I got a fairly good night’s sleep on the first night. I woke up, showered, looked around for a hair dryer – none. I called the front desk and the gentleman (who was very nice) said he would have one to my room shortly, but first he had to get someone’s room cleaned (at 7 am?)...Bad experience staying at Candlewood Suites Houston Town &amp; Country. I’m a business professional, woman in my upper 20s. The hotel as advertised on the website looked pretty nice, and the rate cheaper than other hotels nearby.I took a shuttle from IAH and, upon being dropped off about 9 pm, I noticed a couple of odd clientele out front…one guy in his PJ pants, smoking, and also smelled heavily of weed. I then walked into the lobby, wasn’t greeted but rather ignored for a couple minutes because attendant was helping someone else, until he finally looked up and said hello. The lobby is extremely small, maybe 6 foot by 10 foot.  Given that I’m an IHG rewards member, the attendant did kindly give me the “largest room they have”. Walking to my room, I passed another group of shady-looking people and actually started to feel somewhat concerned about the safety of the hotel. I was very pleased, however, when getting to my room. Much larger than expected and seemed to be renovated; like an entirely different hotel from the shoddy, small lobby area.I got a fairly good night’s sleep on the first night. I woke up, showered, looked around for a hair dryer – none. I called the front desk and the gentleman (who was very nice) said he would have one to my room shortly, but first he had to get someone’s room cleaned (at 7 am?) He brought the hair dryer about 15 minutes later. During this timeframe, I decided to make a pot of coffee. Plugged it in, pressed on – nothing. Outlet didn’t work. Switched to another outlet that did work. Second morning, I needed to leave my luggage with the bellman to attend a seminar. Well, there is no bellman, but the attendant was very nice about it and instead placed my bag inside a “locked utility room”. I followed them to the room and they placed my bag next to a wall of electronics. I’m not sure how many employees access said utility room each day, but I was happy that my bag held nothing more than dirty clothes. That afternoon, I went back to the hotel to retrieve my bag and the front attendant took me back to the utility room, which was UNLOCKED and DOOR OPEN. She laughed and said, “I was just in here, that’s why it’s unlocked.” Again, glad I didn’t store any valuables in there. This morning, upon checking my corporate credit card, I noticed that the hotel charged me not only upon booking (I paid the discounted pre-book rate) but also yesterday, upon departing. I just called and they are refunding me within 7-10 days.The staff was so, so kind but the hotel is so, so shady and needs some serious attention to detail. I will not stay again nor would I recommend to anyone, particularly a young single woman. I would gladly pay triple the rate to stay elsewhere. Lesson learned.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tanja E, Manager at Candlewood Suites At CityCentre-Energy Corridor, responded to this reviewResponded January 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2016</t>
+  </si>
+  <si>
+    <t>Bad experience staying at Candlewood Suites Houston Town &amp; Country. I’m a business professional, woman in my upper 20s. The hotel as advertised on the website looked pretty nice, and the rate cheaper than other hotels nearby.
+I took a shuttle from IAH and, upon being dropped off about 9 pm, I noticed a couple of odd clientele out front…one guy in his PJ pants, smoking, and also smelled heavily of weed. I then walked into the lobby, wasn’t greeted but rather ignored for a couple minutes because attendant was helping someone else, until he finally looked up and said hello. The lobby is extremely small, maybe 6 foot by 10 foot.  Given that I’m an IHG rewards member, the attendant did kindly give me the “largest room they have”. 
+Walking to my room, I passed another group of shady-looking people and actually started to feel somewhat concerned about the safety of the hotel. I was very pleased, however, when getting to my room. Much larger than expected and seemed to be renovated; like an entirely different hotel from the shoddy, small lobby area.
+I got a fairly good night’s sleep on the first night. I woke up, showered, looked around for a hair dryer – none. I called the front desk and the gentleman (who was very nice) said he would have one to my room shortly, but first he had to get someone’s room cleaned (at 7 am?)...Bad experience staying at Candlewood Suites Houston Town &amp; Country. I’m a business professional, woman in my upper 20s. The hotel as advertised on the website looked pretty nice, and the rate cheaper than other hotels nearby.I took a shuttle from IAH and, upon being dropped off about 9 pm, I noticed a couple of odd clientele out front…one guy in his PJ pants, smoking, and also smelled heavily of weed. I then walked into the lobby, wasn’t greeted but rather ignored for a couple minutes because attendant was helping someone else, until he finally looked up and said hello. The lobby is extremely small, maybe 6 foot by 10 foot.  Given that I’m an IHG rewards member, the attendant did kindly give me the “largest room they have”. Walking to my room, I passed another group of shady-looking people and actually started to feel somewhat concerned about the safety of the hotel. I was very pleased, however, when getting to my room. Much larger than expected and seemed to be renovated; like an entirely different hotel from the shoddy, small lobby area.I got a fairly good night’s sleep on the first night. I woke up, showered, looked around for a hair dryer – none. I called the front desk and the gentleman (who was very nice) said he would have one to my room shortly, but first he had to get someone’s room cleaned (at 7 am?) He brought the hair dryer about 15 minutes later. During this timeframe, I decided to make a pot of coffee. Plugged it in, pressed on – nothing. Outlet didn’t work. Switched to another outlet that did work. Second morning, I needed to leave my luggage with the bellman to attend a seminar. Well, there is no bellman, but the attendant was very nice about it and instead placed my bag inside a “locked utility room”. I followed them to the room and they placed my bag next to a wall of electronics. I’m not sure how many employees access said utility room each day, but I was happy that my bag held nothing more than dirty clothes. That afternoon, I went back to the hotel to retrieve my bag and the front attendant took me back to the utility room, which was UNLOCKED and DOOR OPEN. She laughed and said, “I was just in here, that’s why it’s unlocked.” Again, glad I didn’t store any valuables in there. This morning, upon checking my corporate credit card, I noticed that the hotel charged me not only upon booking (I paid the discounted pre-book rate) but also yesterday, upon departing. I just called and they are refunding me within 7-10 days.The staff was so, so kind but the hotel is so, so shady and needs some serious attention to detail. I will not stay again nor would I recommend to anyone, particularly a young single woman. I would gladly pay triple the rate to stay elsewhere. Lesson learned.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r316251274-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>316251274</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>Brilliant location near to good restaurants and lovely staff</t>
+  </si>
+  <si>
+    <t>Stayed a few times and will always come back. Staff are lovely and take the time for you, and will help with anything you need. The location is great with eating and drinking establishments within walking distance (which is rare for Houston from experience). The rooms are great with everything you need and as always there is the store cupboard and you can do your own laundry if needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Jennifer D, Director of Sales at Candlewood Suites At CityCentre-Energy Corridor, responded to this reviewResponded October 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2015</t>
+  </si>
+  <si>
+    <t>Stayed a few times and will always come back. Staff are lovely and take the time for you, and will help with anything you need. The location is great with eating and drinking establishments within walking distance (which is rare for Houston from experience). The rooms are great with everything you need and as always there is the store cupboard and you can do your own laundry if needed.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r295859018-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -432,6 +627,51 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r260135294-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260135294</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>Perfect Home Away From Home</t>
+  </si>
+  <si>
+    <t>We had to move out of our home for several days due to renovation work so we were looking for a hotel that was close to work and school, but that also had "home" amenities.  We had never stayed in an extended-stay facility and if we ever need to again, I will definitely look at Candlewood first.  Everyone here was so friendly including the guests.  We stayed in a one bedroom suite which was clean, and offered plenty of room for the two of us and was extremely quiet at night.  This hotel is not "technically" located in City Centre, but is located next door.  You do not have to go into City Centre to have walking access to restaurants and a neighborhood park and plenty of parking.  Great overall experience and if we ever have to move out of our home again, we will be staying here again.  This is also an excellent option for out of town guests!MoreShow less</t>
+  </si>
+  <si>
+    <t>We had to move out of our home for several days due to renovation work so we were looking for a hotel that was close to work and school, but that also had "home" amenities.  We had never stayed in an extended-stay facility and if we ever need to again, I will definitely look at Candlewood first.  Everyone here was so friendly including the guests.  We stayed in a one bedroom suite which was clean, and offered plenty of room for the two of us and was extremely quiet at night.  This hotel is not "technically" located in City Centre, but is located next door.  You do not have to go into City Centre to have walking access to restaurants and a neighborhood park and plenty of parking.  Great overall experience and if we ever have to move out of our home again, we will be staying here again.  This is also an excellent option for out of town guests!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r198914908-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198914908</t>
+  </si>
+  <si>
+    <t>03/27/2014</t>
+  </si>
+  <si>
+    <t>OK but a bit dated....</t>
+  </si>
+  <si>
+    <t>Stayed on company business booked at our company rate which was the same as the nearby Sorella Hotel which is a great place but FULL.The Candlewood was close to the CityCenter area which has plenty of good places to eat, drink and shop..... about 10min walk away or a few mins in the car.For the price the Candlewood is average..... the room I had was large and well away from the noisy gym/shop area and the nearby highways could only just be heard.The air con didn't respond to the wall controls but would randomly come on pumping cold air from a very noisy system..... I couldnt sleep with it blasting so had to find a way to turn it off at the wall. The room looked clean but the general smell and feel of the furnishings somehow felt grubby..... the bed was fine and had nice clean bedding. There is no room safe which was a surprise considering the other facilities offered in room eg. two TVs, full kitchen etc.Coming from the UK I'm not sure how often you'd expect to see a cockroach in a Houston hotel room but one decided to visit me in the bathroom one evening.... he was swiftly sent to cockroach heaven and I reported it to reception just in case.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites At CityCentre-Energy Corridor, responded to this reviewResponded April 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2014</t>
+  </si>
+  <si>
+    <t>Stayed on company business booked at our company rate which was the same as the nearby Sorella Hotel which is a great place but FULL.The Candlewood was close to the CityCenter area which has plenty of good places to eat, drink and shop..... about 10min walk away or a few mins in the car.For the price the Candlewood is average..... the room I had was large and well away from the noisy gym/shop area and the nearby highways could only just be heard.The air con didn't respond to the wall controls but would randomly come on pumping cold air from a very noisy system..... I couldnt sleep with it blasting so had to find a way to turn it off at the wall. The room looked clean but the general smell and feel of the furnishings somehow felt grubby..... the bed was fine and had nice clean bedding. There is no room safe which was a surprise considering the other facilities offered in room eg. two TVs, full kitchen etc.Coming from the UK I'm not sure how often you'd expect to see a cockroach in a Houston hotel room but one decided to visit me in the bathroom one evening.... he was swiftly sent to cockroach heaven and I reported it to reception just in case.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r197330703-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -513,6 +753,54 @@
     <t>Hotel is very clean and the staff are very friendly , mine was a 5 day stay. I will recommend this Hotel to anyone I know of coming this way. Great restaurant's right across the way in walking distance.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r161098118-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>161098118</t>
+  </si>
+  <si>
+    <t>05/18/2013</t>
+  </si>
+  <si>
+    <t>Good location, reasonable prices, clean, and friendly</t>
+  </si>
+  <si>
+    <t>We stayed for just one night, but found this to be a very nice place to stop over. We will stay there again when in the area again. It is very convenient to nearby Memorial City Hermann Hospital, and many excellent dining places. The hotel itself is exactly what you expect from this category: efficient, clean, and friendly staff. I noted it did have what looked like a decent fitness center.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Jennifer D, Director of Sales at Candlewood Suites At CityCentre-Energy Corridor, responded to this reviewResponded May 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2013</t>
+  </si>
+  <si>
+    <t>We stayed for just one night, but found this to be a very nice place to stop over. We will stay there again when in the area again. It is very convenient to nearby Memorial City Hermann Hospital, and many excellent dining places. The hotel itself is exactly what you expect from this category: efficient, clean, and friendly staff. I noted it did have what looked like a decent fitness center.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r159210675-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>159210675</t>
+  </si>
+  <si>
+    <t>04/29/2013</t>
+  </si>
+  <si>
+    <t>Another great Candlewood</t>
+  </si>
+  <si>
+    <t>We stayed 5 nights here and loved it. Same great Candlewood amenities as usual. Great location with 5 great restaurants across the street and US post office next door.Taste of Texas Steakhouse is an absolute must!!Only negative, we stayed on third floor across from smoking rooms. Our room didn't smell like smoke but the hallway wreaked!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>We stayed 5 nights here and loved it. Same great Candlewood amenities as usual. Great location with 5 great restaurants across the street and US post office next door.Taste of Texas Steakhouse is an absolute must!!Only negative, we stayed on third floor across from smoking rooms. Our room didn't smell like smoke but the hallway wreaked!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r153115606-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -568,6 +856,42 @@
   </si>
   <si>
     <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r111903959-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>111903959</t>
+  </si>
+  <si>
+    <t>06/06/2011</t>
+  </si>
+  <si>
+    <t>Good location but a bit outdated</t>
+  </si>
+  <si>
+    <t>For the price it is a bit old and outdated.The hotel is in a good location, just off I-10 but not noisy at all. You feel very safe, security can be seen around often. Parking lot is well lit.For two people is spacious, with a big working desk and a full size fridge.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r103816644-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>103816644</t>
+  </si>
+  <si>
+    <t>04/12/2011</t>
+  </si>
+  <si>
+    <t>Definitely a Two-Star Hotel</t>
+  </si>
+  <si>
+    <t>This hotel was okay, but it's quality is far below a Hampton Inn or other mid-range hotel. It is like an older Motel 6 where the rooms have kitchenettes.  The location is good.  It is within walking distance of the CityCentre and a ton of restaurants.  WiFi is included, but breakfast is not.  The structure, appliances, fixtures, etc. are old and dated.   I'm not sure why everyone thinks this hotel is such a great value.  Maybe I overpaid ($85 / night)?  Also, there seemed to be a lot of out-of-own people living here full-time.</t>
+  </si>
+  <si>
+    <t>April 2011</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107952-r92570322-Candlewood_Suites_At_CityCentre_Energy_Corridor-Houston_Texas.html</t>
@@ -1141,7 +1465,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1202,22 +1526,22 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>4</v>
-      </c>
-      <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
         <v>5</v>
@@ -1269,26 +1593,20 @@
         <v>70</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
         <v>71</v>
       </c>
-      <c r="O4" t="s">
-        <v>72</v>
-      </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>2</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
@@ -1299,7 +1617,7 @@
         <v>64</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
@@ -1315,7 +1633,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1324,43 +1642,49 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
         <v>75</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>76</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>77</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" t="s">
         <v>78</v>
       </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>79</v>
-      </c>
-      <c r="O5" t="s">
-        <v>53</v>
-      </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
         <v>80</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>81</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -1376,7 +1700,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1385,45 +1709,49 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
         <v>84</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>85</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>86</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>87</v>
       </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>88</v>
-      </c>
       <c r="O6" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R6" t="s"/>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s">
+        <v>80</v>
+      </c>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -1439,7 +1767,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1448,29 +1776,27 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
         <v>91</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>92</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>93</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>94</v>
       </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>95</v>
-      </c>
       <c r="O7" t="s">
-        <v>72</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="n">
         <v>5</v>
       </c>
@@ -1486,7 +1812,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
@@ -1523,31 +1849,31 @@
         <v>100</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
         <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" t="s">
+        <v>103</v>
+      </c>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
@@ -1563,7 +1889,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1572,45 +1898,43 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="O9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>4</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>3</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>111</v>
+      </c>
+      <c r="X9" t="s">
+        <v>112</v>
+      </c>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
@@ -1626,7 +1950,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1635,35 +1959,37 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
       <c r="R10" t="s"/>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1671,7 +1997,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
@@ -1687,7 +2013,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1696,47 +2022,45 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="O11" t="s">
-        <v>72</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>4</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>119</v>
-      </c>
-      <c r="X11" t="s">
-        <v>120</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
@@ -1752,7 +2076,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1761,43 +2085,45 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="O12" t="s">
-        <v>72</v>
-      </c>
-      <c r="P12" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>128</v>
-      </c>
-      <c r="X12" t="s">
-        <v>129</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
@@ -1813,7 +2139,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1822,45 +2148,49 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O13" t="s">
-        <v>137</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>139</v>
+      </c>
+      <c r="X13" t="s">
+        <v>140</v>
+      </c>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
@@ -1876,7 +2206,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1885,51 +2215,41 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K14" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L14" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O14" t="s">
         <v>53</v>
       </c>
-      <c r="P14" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
       <c r="R14" t="n">
-        <v>4</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>144</v>
-      </c>
-      <c r="X14" t="s">
-        <v>145</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
         <v>146</v>
       </c>
@@ -1947,7 +2267,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -1956,43 +2276,45 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="O15" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
       <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
         <v>153</v>
-      </c>
-      <c r="X15" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="16">
@@ -2008,7 +2330,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2017,43 +2339,43 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" t="s">
         <v>157</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>158</v>
       </c>
-      <c r="K16" t="s">
-        <v>159</v>
-      </c>
-      <c r="L16" t="s">
-        <v>160</v>
-      </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="O16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>162</v>
-      </c>
-      <c r="X16" t="s">
-        <v>163</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17">
@@ -2069,7 +2391,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2078,49 +2400,49 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="J17" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K17" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="L17" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="O17" t="s">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>164</v>
+      </c>
+      <c r="X17" t="s">
+        <v>165</v>
+      </c>
       <c r="Y17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
@@ -2136,7 +2458,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2145,49 +2467,47 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" t="s">
+        <v>170</v>
+      </c>
+      <c r="L18" t="s">
+        <v>171</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
         <v>172</v>
       </c>
-      <c r="J18" t="s">
-        <v>173</v>
-      </c>
-      <c r="K18" t="s">
-        <v>174</v>
-      </c>
-      <c r="L18" t="s">
-        <v>175</v>
-      </c>
-      <c r="M18" t="n">
-        <v>3</v>
-      </c>
-      <c r="N18" t="s">
-        <v>176</v>
-      </c>
       <c r="O18" t="s">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>173</v>
+      </c>
+      <c r="X18" t="s">
+        <v>174</v>
+      </c>
       <c r="Y18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19">
@@ -2203,7 +2523,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2212,49 +2532,47 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
+        <v>177</v>
+      </c>
+      <c r="J19" t="s">
+        <v>178</v>
+      </c>
+      <c r="K19" t="s">
         <v>179</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>180</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
         <v>181</v>
       </c>
-      <c r="L19" t="s">
-        <v>182</v>
-      </c>
-      <c r="M19" t="n">
-        <v>3</v>
-      </c>
-      <c r="N19" t="s">
-        <v>183</v>
-      </c>
       <c r="O19" t="s">
-        <v>72</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4</v>
-      </c>
-      <c r="R19" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>182</v>
+      </c>
+      <c r="X19" t="s">
+        <v>183</v>
+      </c>
       <c r="Y19" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
@@ -2270,7 +2588,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2279,49 +2597,43 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O20" t="s">
-        <v>72</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>4</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>191</v>
+      </c>
+      <c r="X20" t="s">
+        <v>192</v>
+      </c>
       <c r="Y20" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21">
@@ -2337,7 +2649,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2346,25 +2658,25 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="J21" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K21" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="O21" t="s">
-        <v>72</v>
+        <v>200</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2372,12 +2684,8 @@
       <c r="Q21" t="n">
         <v>5</v>
       </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
         <v>5</v>
@@ -2388,7 +2696,943 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>196</v>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36353</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>201</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>202</v>
+      </c>
+      <c r="J22" t="s">
+        <v>203</v>
+      </c>
+      <c r="K22" t="s">
+        <v>204</v>
+      </c>
+      <c r="L22" t="s">
+        <v>205</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>199</v>
+      </c>
+      <c r="O22" t="s">
+        <v>200</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>182</v>
+      </c>
+      <c r="X22" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36353</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>208</v>
+      </c>
+      <c r="J23" t="s">
+        <v>209</v>
+      </c>
+      <c r="K23" t="s">
+        <v>210</v>
+      </c>
+      <c r="L23" t="s">
+        <v>211</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>212</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>213</v>
+      </c>
+      <c r="X23" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36353</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>217</v>
+      </c>
+      <c r="J24" t="s">
+        <v>218</v>
+      </c>
+      <c r="K24" t="s">
+        <v>219</v>
+      </c>
+      <c r="L24" t="s">
+        <v>220</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>221</v>
+      </c>
+      <c r="O24" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>222</v>
+      </c>
+      <c r="X24" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36353</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>226</v>
+      </c>
+      <c r="J25" t="s">
+        <v>227</v>
+      </c>
+      <c r="K25" t="s">
+        <v>228</v>
+      </c>
+      <c r="L25" t="s">
+        <v>229</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>230</v>
+      </c>
+      <c r="O25" t="s">
+        <v>78</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>231</v>
+      </c>
+      <c r="X25" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36353</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>234</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>235</v>
+      </c>
+      <c r="J26" t="s">
+        <v>236</v>
+      </c>
+      <c r="K26" t="s">
+        <v>237</v>
+      </c>
+      <c r="L26" t="s">
+        <v>238</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>239</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>240</v>
+      </c>
+      <c r="X26" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36353</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>243</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>244</v>
+      </c>
+      <c r="J27" t="s">
+        <v>245</v>
+      </c>
+      <c r="K27" t="s">
+        <v>246</v>
+      </c>
+      <c r="L27" t="s">
+        <v>247</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>248</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>249</v>
+      </c>
+      <c r="X27" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36353</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>252</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J28" t="s">
+        <v>254</v>
+      </c>
+      <c r="K28" t="s">
+        <v>255</v>
+      </c>
+      <c r="L28" t="s">
+        <v>256</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>257</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>249</v>
+      </c>
+      <c r="X28" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36353</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>259</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>260</v>
+      </c>
+      <c r="J29" t="s">
+        <v>261</v>
+      </c>
+      <c r="K29" t="s">
+        <v>262</v>
+      </c>
+      <c r="L29" t="s">
+        <v>263</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>264</v>
+      </c>
+      <c r="O29" t="s">
+        <v>200</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36353</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>265</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>266</v>
+      </c>
+      <c r="J30" t="s">
+        <v>267</v>
+      </c>
+      <c r="K30" t="s">
+        <v>268</v>
+      </c>
+      <c r="L30" t="s">
+        <v>269</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>270</v>
+      </c>
+      <c r="O30" t="s">
+        <v>200</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36353</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>272</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>273</v>
+      </c>
+      <c r="J31" t="s">
+        <v>274</v>
+      </c>
+      <c r="K31" t="s">
+        <v>275</v>
+      </c>
+      <c r="L31" t="s">
+        <v>276</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>277</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36353</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>278</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>279</v>
+      </c>
+      <c r="J32" t="s">
+        <v>280</v>
+      </c>
+      <c r="K32" t="s">
+        <v>281</v>
+      </c>
+      <c r="L32" t="s">
+        <v>282</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>283</v>
+      </c>
+      <c r="O32" t="s">
+        <v>200</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36353</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>284</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>285</v>
+      </c>
+      <c r="J33" t="s">
+        <v>286</v>
+      </c>
+      <c r="K33" t="s">
+        <v>287</v>
+      </c>
+      <c r="L33" t="s">
+        <v>288</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>289</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36353</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>290</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>291</v>
+      </c>
+      <c r="J34" t="s">
+        <v>292</v>
+      </c>
+      <c r="K34" t="s">
+        <v>293</v>
+      </c>
+      <c r="L34" t="s">
+        <v>294</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>295</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36353</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>296</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>297</v>
+      </c>
+      <c r="J35" t="s">
+        <v>298</v>
+      </c>
+      <c r="K35" t="s">
+        <v>299</v>
+      </c>
+      <c r="L35" t="s">
+        <v>300</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>301</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
